--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/利息支出.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/利息支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>4.07803</v>
-      </c>
-      <c r="C2" t="n">
-        <v>25.52651</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.21141</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3.00524</v>
-      </c>
-      <c r="G2" t="n">
-        <v>19.93008</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.324579999999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6.47603</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.00479</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.58275</v>
-      </c>
-      <c r="L2" t="n">
-        <v>359.68155</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.26683</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.07077</v>
-      </c>
-      <c r="O2" t="n">
-        <v>9.59918</v>
-      </c>
-      <c r="P2" t="n">
-        <v>6.27661</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.0919</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.96591</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4.63245</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>8.21325</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.11088</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.51361</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.02528</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>62.55341</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>36.0512</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>20.56918</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>5.51389</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.34591</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.06241</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>19.93788</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.3665</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>16.70796</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13.97308</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>20.25688</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.25127</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>6.51023</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>11.65025</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>8.998519999999999</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>6.01861</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.00758</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3.52601</v>
-      </c>
-      <c r="C3" t="n">
-        <v>20.71835</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92748</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>2.59943</v>
-      </c>
-      <c r="G3" t="n">
-        <v>18.72409</v>
-      </c>
-      <c r="H3" t="n">
-        <v>5.73648</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.98411</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.24402</v>
-      </c>
-      <c r="K3" t="n">
-        <v>8.813470000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>331.95909</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.48946</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.77849</v>
-      </c>
-      <c r="O3" t="n">
-        <v>9.46782</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5.36411</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.07955</v>
-      </c>
-      <c r="R3" t="n">
-        <v>6.36425</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.25252</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>7.73085</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.06644</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.31737</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.27923</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>67.26423</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>31.99157</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17.73945</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.00808</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.12003</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.76117</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>16.60551</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.68379</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>19.30286</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>11.65994</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>16.67627</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.1541</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>5.26129</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>11.63065</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>6.15669</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>7.47061</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.00932</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>3.45465</v>
-      </c>
-      <c r="C4" t="n">
-        <v>13.39524</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.17636</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>1.56444</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16.97513</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5.79646</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6.75501</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.14805</v>
-      </c>
-      <c r="K4" t="n">
-        <v>9.73193</v>
-      </c>
-      <c r="L4" t="n">
-        <v>305.32332</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.83883</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.17835</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7.98474</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.31059</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.07251000000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>6.57672</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.33015</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>7.47919</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.10072</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.7614</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.41799</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>64.39756</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>30.02621</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>15.28411</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.5971</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.32997</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.76577</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>15.14003</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.68553</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>17.25337</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10.82602</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>14.69558</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.11176</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7.2137</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>12.13788</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>5.67341</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>8.25428</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.01162</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
